--- a/Materias.xlsx
+++ b/Materias.xlsx
@@ -134,12 +134,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,7 +447,7 @@
   <dimension ref="A3:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +530,7 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -541,7 +548,7 @@
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -557,7 +564,7 @@
       <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
